--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H2">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.115748266030356</v>
+        <v>0.2124476666666667</v>
       </c>
       <c r="N2">
-        <v>0.115748266030356</v>
+        <v>0.637343</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6026365579888634</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6026365579888634</v>
       </c>
       <c r="Q2">
-        <v>0.3575053848196386</v>
+        <v>0.8026968258695556</v>
       </c>
       <c r="R2">
-        <v>0.3575053848196386</v>
+        <v>7.224271432826</v>
       </c>
       <c r="S2">
-        <v>0.6493573882380687</v>
+        <v>0.3821193788007464</v>
       </c>
       <c r="T2">
-        <v>0.6493573882380687</v>
+        <v>0.3821193788007464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09106225476578</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H3">
-        <v>1.09106225476578</v>
+        <v>11.334982</v>
       </c>
       <c r="I3">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J3">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.115748266030356</v>
+        <v>0.1400826666666667</v>
       </c>
       <c r="N3">
-        <v>0.115748266030356</v>
+        <v>0.420248</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3973634420111366</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3973634420111367</v>
       </c>
       <c r="Q3">
-        <v>0.1262885641203096</v>
+        <v>0.5292781683928889</v>
       </c>
       <c r="R3">
-        <v>0.1262885641203096</v>
+        <v>4.763503515536001</v>
       </c>
       <c r="S3">
-        <v>0.2293851103889591</v>
+        <v>0.251959941039999</v>
       </c>
       <c r="T3">
-        <v>0.2293851103889591</v>
+        <v>0.251959941039999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H4">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I4">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J4">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.115748266030356</v>
+        <v>0.2124476666666667</v>
       </c>
       <c r="N4">
-        <v>0.115748266030356</v>
+        <v>0.637343</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6026365579888634</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6026365579888634</v>
       </c>
       <c r="Q4">
-        <v>0.02616765254173204</v>
+        <v>0.2954201651216667</v>
       </c>
       <c r="R4">
-        <v>0.02616765254173204</v>
+        <v>2.658781486095</v>
       </c>
       <c r="S4">
-        <v>0.04752979740261232</v>
+        <v>0.1406331336357496</v>
       </c>
       <c r="T4">
-        <v>0.04752979740261232</v>
+        <v>0.1406331336357496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.390555</v>
+      </c>
+      <c r="H5">
+        <v>4.171665</v>
+      </c>
+      <c r="I5">
+        <v>0.2333630971626989</v>
+      </c>
+      <c r="J5">
+        <v>0.2333630971626989</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1400826666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.420248</v>
+      </c>
+      <c r="O5">
+        <v>0.3973634420111366</v>
+      </c>
+      <c r="P5">
+        <v>0.3973634420111367</v>
+      </c>
+      <c r="Q5">
+        <v>0.1947926525466667</v>
+      </c>
+      <c r="R5">
+        <v>1.75313387292</v>
+      </c>
+      <c r="S5">
+        <v>0.09272996352694934</v>
+      </c>
+      <c r="T5">
+        <v>0.09272996352694936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.2515026666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.754508</v>
+      </c>
+      <c r="I6">
+        <v>0.04220720592713788</v>
+      </c>
+      <c r="J6">
+        <v>0.04220720592713787</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2124476666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.637343</v>
+      </c>
+      <c r="O6">
+        <v>0.6026365579888634</v>
+      </c>
+      <c r="P6">
+        <v>0.6026365579888634</v>
+      </c>
+      <c r="Q6">
+        <v>0.05343115469377778</v>
+      </c>
+      <c r="R6">
+        <v>0.480880392244</v>
+      </c>
+      <c r="S6">
+        <v>0.02543560530225752</v>
+      </c>
+      <c r="T6">
+        <v>0.02543560530225752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2515026666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.754508</v>
+      </c>
+      <c r="I7">
+        <v>0.04220720592713788</v>
+      </c>
+      <c r="J7">
+        <v>0.04220720592713787</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1400826666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.420248</v>
+      </c>
+      <c r="O7">
+        <v>0.3973634420111366</v>
+      </c>
+      <c r="P7">
+        <v>0.3973634420111367</v>
+      </c>
+      <c r="Q7">
+        <v>0.03523116422044444</v>
+      </c>
+      <c r="R7">
+        <v>0.317080477984</v>
+      </c>
+      <c r="S7">
+        <v>0.01677160062488035</v>
+      </c>
+      <c r="T7">
+        <v>0.01677160062488035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.549143</v>
+      </c>
+      <c r="I8">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J8">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2124476666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.637343</v>
+      </c>
+      <c r="O8">
+        <v>0.6026365579888634</v>
+      </c>
+      <c r="P8">
+        <v>0.6026365579888634</v>
+      </c>
+      <c r="Q8">
+        <v>0.03888804967211112</v>
+      </c>
+      <c r="R8">
+        <v>0.349992447049</v>
+      </c>
+      <c r="S8">
+        <v>0.01851244069313726</v>
+      </c>
+      <c r="T8">
+        <v>0.01851244069313725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.549143</v>
+      </c>
+      <c r="I9">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J9">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1400826666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.420248</v>
+      </c>
+      <c r="O9">
+        <v>0.3973634420111366</v>
+      </c>
+      <c r="P9">
+        <v>0.3973634420111367</v>
+      </c>
+      <c r="Q9">
+        <v>0.02564180527377778</v>
+      </c>
+      <c r="R9">
+        <v>0.230776247464</v>
+      </c>
+      <c r="S9">
+        <v>0.01220663940203241</v>
+      </c>
+      <c r="T9">
+        <v>0.01220663940203241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="H5">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="I5">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="J5">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.115748266030356</v>
-      </c>
-      <c r="N5">
-        <v>0.115748266030356</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.04059097756831632</v>
-      </c>
-      <c r="R5">
-        <v>0.04059097756831632</v>
-      </c>
-      <c r="S5">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="T5">
-        <v>0.07372770397035994</v>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.065986</v>
+      </c>
+      <c r="I10">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J10">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2124476666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.637343</v>
+      </c>
+      <c r="O10">
+        <v>0.6026365579888634</v>
+      </c>
+      <c r="P10">
+        <v>0.6026365579888634</v>
+      </c>
+      <c r="Q10">
+        <v>0.07548874613311111</v>
+      </c>
+      <c r="R10">
+        <v>0.6793987151980001</v>
+      </c>
+      <c r="S10">
+        <v>0.03593599955697261</v>
+      </c>
+      <c r="T10">
+        <v>0.03593599955697261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.065986</v>
+      </c>
+      <c r="I11">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J11">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1400826666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.420248</v>
+      </c>
+      <c r="O11">
+        <v>0.3973634420111366</v>
+      </c>
+      <c r="P11">
+        <v>0.3973634420111367</v>
+      </c>
+      <c r="Q11">
+        <v>0.04977538716977778</v>
+      </c>
+      <c r="R11">
+        <v>0.447978484528</v>
+      </c>
+      <c r="S11">
+        <v>0.02369529741727551</v>
+      </c>
+      <c r="T11">
+        <v>0.02369529741727551</v>
       </c>
     </row>
   </sheetData>
